--- a/BRD/BVB-SK_BieuMauThongTinCacTruongQuanLyNhanSu_v14.11.2023.xlsx
+++ b/BRD/BVB-SK_BieuMauThongTinCacTruongQuanLyNhanSu_v14.11.2023.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\ERP\ErpManagement\BRD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B4C493-248D-44E4-992E-0E5FE0D3B446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Data" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Qua trinh cong tac" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Qua trinh Luong" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="HDLD" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Qua trinh chuc danh" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Nghi viec" sheetId="6" r:id="rId9"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Qua trinh cong tac" sheetId="2" r:id="rId2"/>
+    <sheet name="Qua trinh Luong" sheetId="3" r:id="rId3"/>
+    <sheet name="HDLD" sheetId="4" r:id="rId4"/>
+    <sheet name="Qua trinh chuc danh" sheetId="5" r:id="rId5"/>
+    <sheet name="Nghi viec" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="7pe6G7APpqjayR/oAQ0NXGAdwUyiOdsp5qeAmN6PYHo="/>
@@ -21,22 +30,30 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="V2">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAA-tGlpOc
 BVB    (2023-11-14 07:18:01)
 áp dụng cho các đối tượng thường xuyên làm thêm giờ: Lái xe, CNTT, ...</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miD5zPChtJOQeXsSOFWEPy41N5JQw=="/>
     </ext>
   </extLst>
@@ -44,22 +61,30 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="M4">
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAA-tGnsjY
 Toan, Nguyen Quy    (2023-11-14 07:18:01)
 Chú ý cột này sẽ thay đổi khi lương thỏa thuận thay đổi, hoặc nâng ngạch chức danh</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhxRomXG2UJFvlHa/q+JJhHEKw3Vg=="/>
     </ext>
   </extLst>
@@ -643,85 +668,96 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <u/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FFCC0000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF0C0C0C"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -729,7 +765,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -810,28 +846,40 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
-    <border/>
+  <borders count="36">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -841,6 +889,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -852,27 +901,39 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -881,27 +942,40 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -910,9 +984,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -927,6 +1003,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -939,22 +1016,30 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="hair">
@@ -967,6 +1052,7 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -981,6 +1067,7 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="hair">
@@ -995,6 +1082,7 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1007,6 +1095,7 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1015,7 +1104,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1024,9 +1115,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1037,6 +1130,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1049,6 +1143,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="hair">
@@ -1061,6 +1156,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="hair">
@@ -1071,17 +1167,21 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1090,27 +1190,34 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="hair">
         <color rgb="FF000000"/>
       </right>
@@ -1120,6 +1227,7 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1132,334 +1240,346 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="111">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="11" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="12" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="10" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="10" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="10" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="10" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="10" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="10" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="10" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="13" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="13" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="8" fontId="10" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="8" fontId="9" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="8" fontId="9" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="11" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="11" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="14" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="14" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="10" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="11" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="8" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="8" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="8" fontId="11" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="14" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="14" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="13" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="13" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="29" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="13" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="31" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="33" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="5" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="5" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="12" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="34" fillId="5" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1649,809 +1769,811 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:DQ1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="BV4" sqref="BV4:CJ4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="121" width="8.71"/>
+    <col min="1" max="121" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:121" ht="14.4">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="4" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="5" t="s">
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="6" t="s">
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="41"/>
+      <c r="BD1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="3"/>
-      <c r="BR1" s="7" t="s">
+      <c r="BE1" s="40"/>
+      <c r="BF1" s="40"/>
+      <c r="BG1" s="40"/>
+      <c r="BH1" s="40"/>
+      <c r="BI1" s="40"/>
+      <c r="BJ1" s="40"/>
+      <c r="BK1" s="40"/>
+      <c r="BL1" s="40"/>
+      <c r="BM1" s="40"/>
+      <c r="BN1" s="40"/>
+      <c r="BO1" s="40"/>
+      <c r="BP1" s="40"/>
+      <c r="BQ1" s="41"/>
+      <c r="BR1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BY1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CC1" s="2"/>
-      <c r="CD1" s="2"/>
-      <c r="CE1" s="2"/>
-      <c r="CF1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CH1" s="2"/>
-      <c r="CI1" s="2"/>
-      <c r="CJ1" s="2"/>
-      <c r="CK1" s="2"/>
-      <c r="CL1" s="2"/>
-      <c r="CM1" s="2"/>
-      <c r="CN1" s="3"/>
-      <c r="CO1" s="8" t="s">
+      <c r="BS1" s="40"/>
+      <c r="BT1" s="40"/>
+      <c r="BU1" s="40"/>
+      <c r="BV1" s="40"/>
+      <c r="BW1" s="40"/>
+      <c r="BX1" s="40"/>
+      <c r="BY1" s="40"/>
+      <c r="BZ1" s="40"/>
+      <c r="CA1" s="40"/>
+      <c r="CB1" s="40"/>
+      <c r="CC1" s="40"/>
+      <c r="CD1" s="40"/>
+      <c r="CE1" s="40"/>
+      <c r="CF1" s="40"/>
+      <c r="CG1" s="40"/>
+      <c r="CH1" s="40"/>
+      <c r="CI1" s="40"/>
+      <c r="CJ1" s="40"/>
+      <c r="CK1" s="40"/>
+      <c r="CL1" s="40"/>
+      <c r="CM1" s="40"/>
+      <c r="CN1" s="41"/>
+      <c r="CO1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="CP1" s="2"/>
-      <c r="CQ1" s="2"/>
-      <c r="CR1" s="2"/>
-      <c r="CS1" s="2"/>
-      <c r="CT1" s="2"/>
-      <c r="CU1" s="2"/>
-      <c r="CV1" s="2"/>
-      <c r="CW1" s="2"/>
-      <c r="CX1" s="2"/>
-      <c r="CY1" s="2"/>
-      <c r="CZ1" s="2"/>
-      <c r="DA1" s="2"/>
-      <c r="DB1" s="2"/>
-      <c r="DC1" s="2"/>
-      <c r="DD1" s="3"/>
-      <c r="DE1" s="9" t="s">
+      <c r="CP1" s="40"/>
+      <c r="CQ1" s="40"/>
+      <c r="CR1" s="40"/>
+      <c r="CS1" s="40"/>
+      <c r="CT1" s="40"/>
+      <c r="CU1" s="40"/>
+      <c r="CV1" s="40"/>
+      <c r="CW1" s="40"/>
+      <c r="CX1" s="40"/>
+      <c r="CY1" s="40"/>
+      <c r="CZ1" s="40"/>
+      <c r="DA1" s="40"/>
+      <c r="DB1" s="40"/>
+      <c r="DC1" s="40"/>
+      <c r="DD1" s="41"/>
+      <c r="DE1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="DF1" s="2"/>
-      <c r="DG1" s="2"/>
-      <c r="DH1" s="2"/>
-      <c r="DI1" s="2"/>
-      <c r="DJ1" s="3"/>
-      <c r="DK1" s="10" t="s">
+      <c r="DF1" s="40"/>
+      <c r="DG1" s="40"/>
+      <c r="DH1" s="40"/>
+      <c r="DI1" s="40"/>
+      <c r="DJ1" s="41"/>
+      <c r="DK1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="DL1" s="2"/>
-      <c r="DM1" s="2"/>
-      <c r="DN1" s="2"/>
-      <c r="DO1" s="2"/>
-      <c r="DP1" s="2"/>
-      <c r="DQ1" s="3"/>
+      <c r="DL1" s="40"/>
+      <c r="DM1" s="40"/>
+      <c r="DN1" s="40"/>
+      <c r="DO1" s="40"/>
+      <c r="DP1" s="40"/>
+      <c r="DQ1" s="41"/>
     </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:121" ht="14.4">
+      <c r="A2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="Z2" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AB2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AC2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AD2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AE2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AF2" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AG2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AH2" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AI2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AJ2" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="AK2" s="19" t="s">
+      <c r="AK2" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AL2" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="20" t="s">
+      <c r="AM2" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="AN2" s="20" t="s">
+      <c r="AN2" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="AO2" s="20" t="s">
+      <c r="AO2" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="AP2" s="11" t="s">
+      <c r="AP2" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AQ2" s="21" t="s">
+      <c r="AQ2" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="21" t="s">
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="21" t="s">
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="21" t="s">
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="22" t="s">
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="25" t="s">
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68"/>
+      <c r="BB2" s="68"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="23"/>
-      <c r="BG2" s="23"/>
-      <c r="BH2" s="23"/>
-      <c r="BI2" s="23"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="26" t="s">
+      <c r="BE2" s="68"/>
+      <c r="BF2" s="68"/>
+      <c r="BG2" s="68"/>
+      <c r="BH2" s="68"/>
+      <c r="BI2" s="68"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="BL2" s="23"/>
-      <c r="BM2" s="23"/>
-      <c r="BN2" s="24"/>
-      <c r="BO2" s="26" t="s">
+      <c r="BL2" s="68"/>
+      <c r="BM2" s="68"/>
+      <c r="BN2" s="61"/>
+      <c r="BO2" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="BP2" s="24"/>
-      <c r="BQ2" s="11" t="s">
+      <c r="BP2" s="61"/>
+      <c r="BQ2" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="BR2" s="11" t="s">
+      <c r="BR2" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="BS2" s="11" t="s">
+      <c r="BS2" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="BT2" s="11" t="s">
+      <c r="BT2" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="BU2" s="11" t="s">
+      <c r="BU2" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="BV2" s="27" t="s">
+      <c r="BV2" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="BW2" s="2"/>
-      <c r="BX2" s="2"/>
-      <c r="BY2" s="2"/>
-      <c r="BZ2" s="2"/>
-      <c r="CA2" s="2"/>
-      <c r="CB2" s="2"/>
-      <c r="CC2" s="2"/>
-      <c r="CD2" s="2"/>
-      <c r="CE2" s="2"/>
-      <c r="CF2" s="2"/>
-      <c r="CG2" s="2"/>
-      <c r="CH2" s="2"/>
-      <c r="CI2" s="2"/>
-      <c r="CJ2" s="3"/>
-      <c r="CK2" s="28" t="s">
+      <c r="BW2" s="40"/>
+      <c r="BX2" s="40"/>
+      <c r="BY2" s="40"/>
+      <c r="BZ2" s="40"/>
+      <c r="CA2" s="40"/>
+      <c r="CB2" s="40"/>
+      <c r="CC2" s="40"/>
+      <c r="CD2" s="40"/>
+      <c r="CE2" s="40"/>
+      <c r="CF2" s="40"/>
+      <c r="CG2" s="40"/>
+      <c r="CH2" s="40"/>
+      <c r="CI2" s="40"/>
+      <c r="CJ2" s="41"/>
+      <c r="CK2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="CL2" s="2"/>
-      <c r="CM2" s="2"/>
-      <c r="CN2" s="3"/>
-      <c r="CO2" s="11" t="s">
+      <c r="CL2" s="40"/>
+      <c r="CM2" s="40"/>
+      <c r="CN2" s="41"/>
+      <c r="CO2" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="CP2" s="16" t="s">
+      <c r="CP2" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="CQ2" s="29" t="s">
+      <c r="CQ2" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="CR2" s="11" t="s">
+      <c r="CR2" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="CS2" s="28" t="s">
+      <c r="CS2" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="CT2" s="2"/>
-      <c r="CU2" s="2"/>
-      <c r="CV2" s="2"/>
-      <c r="CW2" s="3"/>
-      <c r="CX2" s="28" t="s">
+      <c r="CT2" s="40"/>
+      <c r="CU2" s="40"/>
+      <c r="CV2" s="40"/>
+      <c r="CW2" s="41"/>
+      <c r="CX2" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="CY2" s="2"/>
-      <c r="CZ2" s="2"/>
-      <c r="DA2" s="2"/>
-      <c r="DB2" s="3"/>
-      <c r="DC2" s="28" t="s">
+      <c r="CY2" s="40"/>
+      <c r="CZ2" s="40"/>
+      <c r="DA2" s="40"/>
+      <c r="DB2" s="41"/>
+      <c r="DC2" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="DD2" s="3"/>
-      <c r="DE2" s="30" t="s">
+      <c r="DD2" s="41"/>
+      <c r="DE2" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="DF2" s="31" t="s">
+      <c r="DF2" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="DG2" s="11" t="s">
+      <c r="DG2" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="DH2" s="11" t="s">
+      <c r="DH2" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="DI2" s="32" t="s">
+      <c r="DI2" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="DJ2" s="24"/>
-      <c r="DK2" s="33" t="s">
+      <c r="DJ2" s="61"/>
+      <c r="DK2" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="DL2" s="33" t="s">
+      <c r="DL2" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="DM2" s="33" t="s">
+      <c r="DM2" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="DN2" s="34" t="s">
+      <c r="DN2" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="DO2" s="35" t="s">
+      <c r="DO2" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="DP2" s="11" t="s">
+      <c r="DP2" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="DQ2" s="11" t="s">
+      <c r="DQ2" s="51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" ht="33.75" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="11" t="s">
+    <row r="3" spans="1:121" ht="33.75" customHeight="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="AR3" s="16" t="s">
+      <c r="AR3" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="AS3" s="11" t="s">
+      <c r="AS3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="AT3" s="16" t="s">
+      <c r="AT3" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AU3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AV3" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="AW3" s="11" t="s">
+      <c r="AW3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="AX3" s="11" t="s">
+      <c r="AX3" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="AY3" s="37"/>
-      <c r="AZ3" s="38"/>
-      <c r="BA3" s="38"/>
-      <c r="BB3" s="38"/>
-      <c r="BC3" s="39"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="38"/>
-      <c r="BF3" s="38"/>
-      <c r="BG3" s="38"/>
-      <c r="BH3" s="38"/>
-      <c r="BI3" s="38"/>
-      <c r="BJ3" s="39"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="38"/>
-      <c r="BM3" s="38"/>
-      <c r="BN3" s="39"/>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="39"/>
-      <c r="BQ3" s="36"/>
-      <c r="BR3" s="36"/>
-      <c r="BS3" s="36"/>
-      <c r="BT3" s="36"/>
-      <c r="BU3" s="36"/>
-      <c r="BV3" s="27" t="s">
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="69"/>
+      <c r="BA3" s="69"/>
+      <c r="BB3" s="69"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="107"/>
+      <c r="BE3" s="69"/>
+      <c r="BF3" s="69"/>
+      <c r="BG3" s="69"/>
+      <c r="BH3" s="69"/>
+      <c r="BI3" s="69"/>
+      <c r="BJ3" s="63"/>
+      <c r="BK3" s="107"/>
+      <c r="BL3" s="69"/>
+      <c r="BM3" s="69"/>
+      <c r="BN3" s="63"/>
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="63"/>
+      <c r="BQ3" s="49"/>
+      <c r="BR3" s="49"/>
+      <c r="BS3" s="49"/>
+      <c r="BT3" s="49"/>
+      <c r="BU3" s="49"/>
+      <c r="BV3" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2"/>
-      <c r="BY3" s="2"/>
-      <c r="BZ3" s="3"/>
-      <c r="CA3" s="27" t="s">
+      <c r="BW3" s="40"/>
+      <c r="BX3" s="40"/>
+      <c r="BY3" s="40"/>
+      <c r="BZ3" s="41"/>
+      <c r="CA3" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="CB3" s="2"/>
-      <c r="CC3" s="2"/>
-      <c r="CD3" s="2"/>
-      <c r="CE3" s="3"/>
-      <c r="CF3" s="27" t="s">
+      <c r="CB3" s="40"/>
+      <c r="CC3" s="40"/>
+      <c r="CD3" s="40"/>
+      <c r="CE3" s="41"/>
+      <c r="CF3" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="CG3" s="2"/>
-      <c r="CH3" s="2"/>
-      <c r="CI3" s="2"/>
-      <c r="CJ3" s="3"/>
-      <c r="CK3" s="28" t="s">
+      <c r="CG3" s="40"/>
+      <c r="CH3" s="40"/>
+      <c r="CI3" s="40"/>
+      <c r="CJ3" s="41"/>
+      <c r="CK3" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="CL3" s="3"/>
-      <c r="CM3" s="28" t="s">
+      <c r="CL3" s="41"/>
+      <c r="CM3" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="CN3" s="3"/>
-      <c r="CO3" s="36"/>
-      <c r="CP3" s="36"/>
-      <c r="CQ3" s="36"/>
-      <c r="CR3" s="36"/>
-      <c r="CS3" s="40" t="s">
+      <c r="CN3" s="41"/>
+      <c r="CO3" s="49"/>
+      <c r="CP3" s="49"/>
+      <c r="CQ3" s="49"/>
+      <c r="CR3" s="49"/>
+      <c r="CS3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="CT3" s="40" t="s">
+      <c r="CT3" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="CU3" s="40" t="s">
+      <c r="CU3" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="CV3" s="40" t="s">
+      <c r="CV3" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="CW3" s="40" t="s">
+      <c r="CW3" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="CX3" s="40" t="s">
+      <c r="CX3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="CY3" s="40" t="s">
+      <c r="CY3" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="CZ3" s="40" t="s">
+      <c r="CZ3" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="DA3" s="40" t="s">
+      <c r="DA3" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="DB3" s="40" t="s">
+      <c r="DB3" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="DC3" s="40" t="s">
+      <c r="DC3" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="DD3" s="40" t="s">
+      <c r="DD3" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="DE3" s="36"/>
-      <c r="DF3" s="36"/>
-      <c r="DG3" s="36"/>
-      <c r="DH3" s="36"/>
-      <c r="DI3" s="37"/>
-      <c r="DJ3" s="39"/>
-      <c r="DK3" s="36"/>
-      <c r="DL3" s="36"/>
-      <c r="DM3" s="36"/>
-      <c r="DN3" s="36"/>
-      <c r="DO3" s="36"/>
-      <c r="DP3" s="36"/>
-      <c r="DQ3" s="36"/>
+      <c r="DE3" s="49"/>
+      <c r="DF3" s="49"/>
+      <c r="DG3" s="49"/>
+      <c r="DH3" s="49"/>
+      <c r="DI3" s="62"/>
+      <c r="DJ3" s="63"/>
+      <c r="DK3" s="49"/>
+      <c r="DL3" s="49"/>
+      <c r="DM3" s="49"/>
+      <c r="DN3" s="49"/>
+      <c r="DO3" s="49"/>
+      <c r="DP3" s="49"/>
+      <c r="DQ3" s="49"/>
     </row>
-    <row r="4">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="42" t="s">
+    <row r="4" spans="1:121" ht="45.6">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AZ4" s="42" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BA4" s="42" t="s">
+      <c r="BA4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BB4" s="42" t="s">
+      <c r="BB4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BC4" s="42" t="s">
+      <c r="BC4" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="BD4" s="43" t="s">
+      <c r="BD4" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="BE4" s="42" t="s">
+      <c r="BE4" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="BF4" s="44" t="s">
+      <c r="BF4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BG4" s="44" t="s">
+      <c r="BG4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BH4" s="44" t="s">
+      <c r="BH4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BI4" s="44" t="s">
+      <c r="BI4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BJ4" s="44" t="s">
+      <c r="BJ4" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="BK4" s="43" t="s">
+      <c r="BK4" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="BL4" s="44" t="s">
+      <c r="BL4" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="BM4" s="44" t="s">
+      <c r="BM4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BN4" s="44" t="s">
+      <c r="BN4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BO4" s="44" t="s">
+      <c r="BO4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="BP4" s="44" t="s">
+      <c r="BP4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41"/>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="42" t="s">
+      <c r="BQ4" s="50"/>
+      <c r="BR4" s="50"/>
+      <c r="BS4" s="50"/>
+      <c r="BT4" s="50"/>
+      <c r="BU4" s="50"/>
+      <c r="BV4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BW4" s="42" t="s">
+      <c r="BW4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BX4" s="42" t="s">
+      <c r="BX4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BY4" s="42" t="s">
+      <c r="BY4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="BZ4" s="45" t="s">
+      <c r="BZ4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="CA4" s="42" t="s">
+      <c r="CA4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="CB4" s="42" t="s">
+      <c r="CB4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CC4" s="42" t="s">
+      <c r="CC4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="CD4" s="42" t="s">
+      <c r="CD4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="CE4" s="42" t="s">
+      <c r="CE4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="CF4" s="42" t="s">
+      <c r="CF4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="CG4" s="42" t="s">
+      <c r="CG4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CH4" s="42" t="s">
+      <c r="CH4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="CI4" s="42" t="s">
+      <c r="CI4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="CJ4" s="42" t="s">
+      <c r="CJ4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="CK4" s="46" t="s">
+      <c r="CK4" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="CL4" s="46" t="s">
+      <c r="CL4" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="CM4" s="46" t="s">
+      <c r="CM4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="CN4" s="46" t="s">
+      <c r="CN4" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="CO4" s="41"/>
-      <c r="CP4" s="41"/>
-      <c r="CQ4" s="41"/>
-      <c r="CR4" s="41"/>
-      <c r="CS4" s="41"/>
-      <c r="CT4" s="41"/>
-      <c r="CU4" s="41"/>
-      <c r="CV4" s="41"/>
-      <c r="CW4" s="41"/>
-      <c r="CX4" s="41"/>
-      <c r="CY4" s="41"/>
-      <c r="CZ4" s="41"/>
-      <c r="DA4" s="41"/>
-      <c r="DB4" s="41"/>
-      <c r="DC4" s="41"/>
-      <c r="DD4" s="41"/>
-      <c r="DE4" s="41"/>
-      <c r="DF4" s="41"/>
-      <c r="DG4" s="41"/>
-      <c r="DH4" s="41"/>
-      <c r="DI4" s="47" t="s">
+      <c r="CO4" s="50"/>
+      <c r="CP4" s="50"/>
+      <c r="CQ4" s="50"/>
+      <c r="CR4" s="50"/>
+      <c r="CS4" s="50"/>
+      <c r="CT4" s="50"/>
+      <c r="CU4" s="50"/>
+      <c r="CV4" s="50"/>
+      <c r="CW4" s="50"/>
+      <c r="CX4" s="50"/>
+      <c r="CY4" s="50"/>
+      <c r="CZ4" s="50"/>
+      <c r="DA4" s="50"/>
+      <c r="DB4" s="50"/>
+      <c r="DC4" s="50"/>
+      <c r="DD4" s="50"/>
+      <c r="DE4" s="50"/>
+      <c r="DF4" s="50"/>
+      <c r="DG4" s="50"/>
+      <c r="DH4" s="50"/>
+      <c r="DI4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="DJ4" s="47" t="s">
+      <c r="DJ4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="DK4" s="41"/>
-      <c r="DL4" s="41"/>
-      <c r="DM4" s="41"/>
-      <c r="DN4" s="41"/>
-      <c r="DO4" s="41"/>
-      <c r="DP4" s="41"/>
-      <c r="DQ4" s="41"/>
+      <c r="DK4" s="50"/>
+      <c r="DL4" s="50"/>
+      <c r="DM4" s="50"/>
+      <c r="DN4" s="50"/>
+      <c r="DO4" s="50"/>
+      <c r="DP4" s="50"/>
+      <c r="DQ4" s="50"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -3444,6 +3566,17 @@
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="S2:S4"/>
     <mergeCell ref="AG2:AG4"/>
     <mergeCell ref="AH2:AH4"/>
     <mergeCell ref="Z2:Z4"/>
@@ -3473,6 +3606,9 @@
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="AS2:AT2"/>
     <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="CX3:CX4"/>
+    <mergeCell ref="CY3:CY4"/>
+    <mergeCell ref="CZ3:CZ4"/>
     <mergeCell ref="BT2:BT4"/>
     <mergeCell ref="BU2:BU4"/>
     <mergeCell ref="AY2:BC3"/>
@@ -3482,6 +3618,9 @@
     <mergeCell ref="BQ2:BQ4"/>
     <mergeCell ref="BR2:BR4"/>
     <mergeCell ref="BS2:BS4"/>
+    <mergeCell ref="DI2:DJ3"/>
+    <mergeCell ref="DK2:DK4"/>
+    <mergeCell ref="DL2:DL4"/>
     <mergeCell ref="CX2:DB2"/>
     <mergeCell ref="DC2:DD2"/>
     <mergeCell ref="BV3:BZ3"/>
@@ -3503,30 +3642,6 @@
     <mergeCell ref="DD3:DD4"/>
     <mergeCell ref="CV3:CV4"/>
     <mergeCell ref="CW3:CW4"/>
-    <mergeCell ref="CX3:CX4"/>
-    <mergeCell ref="CY3:CY4"/>
-    <mergeCell ref="CZ3:CZ4"/>
-    <mergeCell ref="DA3:DA4"/>
-    <mergeCell ref="DB3:DB4"/>
-    <mergeCell ref="DM2:DM4"/>
-    <mergeCell ref="DN2:DN4"/>
-    <mergeCell ref="DE2:DE4"/>
-    <mergeCell ref="DF2:DF4"/>
-    <mergeCell ref="DG2:DG4"/>
-    <mergeCell ref="DH2:DH4"/>
-    <mergeCell ref="DI2:DJ3"/>
-    <mergeCell ref="DK2:DK4"/>
-    <mergeCell ref="DL2:DL4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
     <mergeCell ref="T1:AJ1"/>
     <mergeCell ref="BD1:BQ1"/>
     <mergeCell ref="BR1:CN1"/>
@@ -3537,168 +3652,173 @@
     <mergeCell ref="DO2:DO4"/>
     <mergeCell ref="DP2:DP4"/>
     <mergeCell ref="DQ2:DQ4"/>
-    <mergeCell ref="S2:S4"/>
     <mergeCell ref="T2:T4"/>
     <mergeCell ref="U2:U4"/>
     <mergeCell ref="V2:V4"/>
     <mergeCell ref="W2:W4"/>
     <mergeCell ref="X2:X4"/>
     <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="DA3:DA4"/>
+    <mergeCell ref="DB3:DB4"/>
+    <mergeCell ref="DM2:DM4"/>
+    <mergeCell ref="DN2:DN4"/>
+    <mergeCell ref="DE2:DE4"/>
+    <mergeCell ref="DF2:DF4"/>
+    <mergeCell ref="DG2:DG4"/>
+    <mergeCell ref="DH2:DH4"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="12" width="8.71"/>
-    <col customWidth="1" min="13" max="13" width="20.0"/>
-    <col customWidth="1" min="14" max="17" width="8.71"/>
-    <col customWidth="1" min="18" max="18" width="16.0"/>
-    <col customWidth="1" min="19" max="26" width="8.71"/>
+    <col min="1" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="17" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:20" ht="14.4">
+      <c r="A1" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
-    <row r="2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59" t="s">
+    <row r="2" spans="1:20" ht="14.4">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="59" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="3"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="41"/>
     </row>
-    <row r="3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="59" t="s">
+    <row r="3" spans="1:20" ht="14.4">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="59" t="s">
+      <c r="O3" s="41"/>
+      <c r="P3" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="65">
-        <v>2021.0</v>
-      </c>
-      <c r="S3" s="66">
-        <v>2022.0</v>
-      </c>
-      <c r="T3" s="66">
-        <v>2023.0</v>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="17">
+        <v>2021</v>
+      </c>
+      <c r="S3" s="18">
+        <v>2022</v>
+      </c>
+      <c r="T3" s="18">
+        <v>2023</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69" t="s">
+    <row r="4" spans="1:20" ht="66">
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -4682,152 +4802,150 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:M1"/>
     <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="12" width="8.71"/>
-    <col customWidth="1" min="13" max="13" width="12.43"/>
-    <col customWidth="1" min="14" max="17" width="8.71"/>
-    <col customWidth="1" min="18" max="18" width="15.14"/>
-    <col customWidth="1" min="19" max="28" width="8.71"/>
+    <col min="1" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="17" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="19" max="28" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:28" ht="14.4">
+      <c r="A1" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="78" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="79" t="s">
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="R1" s="80" t="s">
+      <c r="R1" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="3"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="41"/>
     </row>
-    <row r="2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="81" t="s">
+    <row r="2" spans="1:28" ht="30.6">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="K2" s="81" t="s">
+      <c r="K2" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="N2" s="83" t="s">
+      <c r="N2" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="O2" s="82" t="s">
+      <c r="O2" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="P2" s="84" t="s">
+      <c r="P2" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="85" t="s">
+      <c r="Q2" s="50"/>
+      <c r="R2" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="S2" s="85" t="s">
+      <c r="S2" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="T2" s="85" t="s">
+      <c r="T2" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="U2" s="85" t="s">
+      <c r="U2" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="V2" s="85" t="s">
+      <c r="V2" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="W2" s="86" t="s">
+      <c r="W2" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="X2" s="85" t="s">
+      <c r="X2" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="86"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="29"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -5816,78 +5934,76 @@
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:AB1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:10" ht="14.4">
+      <c r="A1" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
     </row>
-    <row r="2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="89" t="s">
+    <row r="2" spans="1:10" ht="22.8">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="J2" s="90" t="s">
+      <c r="J2" s="31" t="s">
         <v>161</v>
       </c>
     </row>
@@ -6873,164 +6989,162 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F1:J1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:J1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:20" ht="14.4">
+      <c r="A1" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="52"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="87"/>
     </row>
-    <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94" t="s">
+    <row r="2" spans="1:20" ht="17.25" customHeight="1">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="95" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="97"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="100"/>
     </row>
-    <row r="3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94" t="s">
+    <row r="3" spans="1:20" ht="14.4">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="62"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="14"/>
     </row>
-    <row r="4">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="94" t="s">
+    <row r="4" spans="1:20" ht="92.4">
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="G4" s="94" t="s">
+      <c r="G4" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="I4" s="94" t="s">
+      <c r="I4" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="J4" s="94" t="s">
+      <c r="J4" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="L4" s="94" t="s">
+      <c r="L4" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="M4" s="94" t="s">
+      <c r="M4" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="T4" s="71" t="s">
+      <c r="T4" s="21" t="s">
         <v>127</v>
       </c>
     </row>
@@ -8023,113 +8137,111 @@
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="O2:T2"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="10" width="8.71"/>
-    <col customWidth="1" min="11" max="11" width="10.71"/>
-    <col customWidth="1" min="12" max="18" width="8.71"/>
-    <col customWidth="1" min="19" max="19" width="14.29"/>
-    <col customWidth="1" min="20" max="20" width="11.71"/>
-    <col customWidth="1" min="21" max="26" width="8.71"/>
+    <col min="1" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" customWidth="1"/>
+    <col min="21" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="100" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="101" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="M1" s="102" t="s">
+      <c r="M1" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="N1" s="102" t="s">
+      <c r="N1" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="O1" s="102" t="s">
+      <c r="O1" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="103" t="s">
+      <c r="P1" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="Q1" s="100" t="s">
+      <c r="Q1" s="101" t="s">
         <v>186</v>
       </c>
-      <c r="R1" s="100" t="s">
+      <c r="R1" s="101" t="s">
         <v>187</v>
       </c>
       <c r="S1" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="T1" s="100" t="s">
+      <c r="T1" s="101" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" ht="89.25" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="68"/>
+    <row r="2" spans="1:20" ht="89.25" customHeight="1">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="84"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -9132,9 +9244,7 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>